--- a/Back office-functionalities Light version.xlsx
+++ b/Back office-functionalities Light version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakawat\PROJECT NGBO\NGBO PROPOSAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\NGBO DOC\NGBO-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC952E95-A8B0-4357-8281-8E7836CE2BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50FDB87-F2C7-42A0-B0E7-7A6A4BF7D1E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Module Name</t>
   </si>
@@ -136,18 +136,6 @@
   </si>
   <si>
     <t>Create, modify, and delete Employee information (Transfer, Promotion, User login, Release)</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Create, modify, and delete Product (Cash, Margin &amp; Dealer)</t>
-  </si>
-  <si>
-    <t>Product Deposit Range</t>
-  </si>
-  <si>
-    <t>Set range for product (product switching)</t>
   </si>
   <si>
     <t>Settlement Schedule</t>
@@ -202,29 +190,122 @@
     <t>Map Margin with investor</t>
   </si>
   <si>
-    <t>Investor Interest Assign</t>
-  </si>
-  <si>
-    <t>Map Interest with investor</t>
-  </si>
-  <si>
-    <t>Investor Code</t>
-  </si>
-  <si>
-    <t>Investor Code generation policy</t>
-  </si>
-  <si>
-    <t>IP Reports</t>
-  </si>
-  <si>
-    <t>Investor Profile related reports</t>
+    <t>Charge info</t>
+  </si>
+  <si>
+    <t>Create, modify Charge information</t>
+  </si>
+  <si>
+    <t>Investor wise Charge info</t>
+  </si>
+  <si>
+    <t>investor Map with  Charge information</t>
+  </si>
+  <si>
+    <t>Branch wise Charge info</t>
+  </si>
+  <si>
+    <t>Exchange wise info</t>
+  </si>
+  <si>
+    <t>Customer Profile</t>
+  </si>
+  <si>
+    <t>eKYC Profile Form</t>
+  </si>
+  <si>
+    <t>Risk Grading</t>
+  </si>
+  <si>
+    <t>Risk type Simplification by placing customer risk related information.</t>
+  </si>
+  <si>
+    <t>Create, modify investor information  Like source of fund, occupation, contact etc.</t>
+  </si>
+  <si>
+    <t>EKYC</t>
+  </si>
+  <si>
+    <t>Charges and Margin</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Create, modify, and delete Charge. Map with applicable criteria (Branch, Product Type, Product, Account Level). Dynamically GL integration</t>
+  </si>
+  <si>
+    <t>Brokerage and Margin Interest Configuration</t>
+  </si>
+  <si>
+    <t>Create, modify and delete Brokerage, Margin and Interest Information</t>
+  </si>
+  <si>
+    <t>Margin Interest Setup</t>
+  </si>
+  <si>
+    <t>Map margin and Interest with different criteria (Branch, Product)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominee </t>
+  </si>
+  <si>
+    <t>Create, modify,  and delete  information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POA </t>
+  </si>
+  <si>
+    <t>Public offer operation</t>
+  </si>
+  <si>
+    <t>Locking/Unlocking</t>
+  </si>
+  <si>
+    <t>Specific investor instrument can lock and unlock manually</t>
+  </si>
+  <si>
+    <t>Depository File Process</t>
+  </si>
+  <si>
+    <t>CDBL file process ( BO registration, IPO confirmation,  Transmission In,  Transmission Out, Transfer In, Transfer Out, Change Ownership In, Change Ownership Out, Clearing Information, Daily Charge, Pay in Confirmation, Custody Charge Information,  Payin Reconciliation, Payout Confirmation, Payout Reconciliation, Nominee Information, Pledge,  Unpledge,  Dividend Receivable, Corporate Action)</t>
+  </si>
+  <si>
+    <t>Electronic Receive/Delivery</t>
+  </si>
+  <si>
+    <t>Investor's electronic share receive and delivery</t>
+  </si>
+  <si>
+    <t>IPO App. Refund Upload</t>
+  </si>
+  <si>
+    <t>Issue to broker file upload &amp; process</t>
+  </si>
+  <si>
+    <t>IPO App. File Download</t>
+  </si>
+  <si>
+    <t>Generate Broker to issuer file</t>
+  </si>
+  <si>
+    <t>Settlement &amp; CDBL Operation</t>
+  </si>
+  <si>
+    <t>IPO Application</t>
+  </si>
+  <si>
+    <t>IPO Process</t>
+  </si>
+  <si>
+    <t>IPO allocation &amp; Refund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +332,14 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -266,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -306,52 +395,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -390,11 +433,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -402,56 +566,75 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,17 +915,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,389 +936,597 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="15">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="15">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="15">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="16">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="C13" s="15">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="15">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="15">
+        <v>14</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="15">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="15">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="C20" s="15">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="15">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="C22" s="15">
+        <v>25</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="18">
+        <v>26</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="20">
+        <v>27</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="15">
+        <v>28</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="13">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="13">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="13">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="13">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="13">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="13">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="14">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="12">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="13">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="13">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="15">
         <v>29</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="D26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="13">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="D27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="24">
         <v>31</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="20">
         <v>33</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="D29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="24">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="13">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="3:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="13">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D30" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="21">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="13">
-        <v>19</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="D38" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="8">
         <v>41</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="D39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="8">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="13">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="D40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="8">
         <v>43</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="8">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="13">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="D42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="8">
         <v>45</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="D43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="8">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="13">
-        <v>22</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="162" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="8">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="13">
-        <v>23</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="13">
-        <v>24</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="3:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="13">
-        <v>25</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="13">
-        <v>26</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="D45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="8">
         <v>51</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="D46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="8">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="13">
-        <v>27</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="D47" s="8"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="8">
+        <v>53</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="8">
         <v>54</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="25">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="13">
-        <v>28</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="13">
-        <v>29</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="13">
-        <v>30</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="13">
-        <v>31</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="13">
-        <v>34</v>
-      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1143,5 +1534,6 @@
     <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Back office-functionalities Light version.xlsx
+++ b/Back office-functionalities Light version.xlsx
@@ -1,39 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\NGBO DOC\NGBO-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakawat\PROJECT NGBO\NGBO Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50FDB87-F2C7-42A0-B0E7-7A6A4BF7D1E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB87580-7D53-4319-8CA5-C81D4C16D20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functionalities - NGBO" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
   <si>
     <t>Module Name</t>
   </si>
   <si>
     <t>Sub-Module Name</t>
-  </si>
-  <si>
-    <t>Name of Functionality/Reports</t>
   </si>
   <si>
     <t>Functionality in Brief</t>
@@ -223,9 +232,6 @@
     <t>Create, modify investor information  Like source of fund, occupation, contact etc.</t>
   </si>
   <si>
-    <t>EKYC</t>
-  </si>
-  <si>
     <t>Charges and Margin</t>
   </si>
   <si>
@@ -289,9 +295,6 @@
     <t>Generate Broker to issuer file</t>
   </si>
   <si>
-    <t>Settlement &amp; CDBL Operation</t>
-  </si>
-  <si>
     <t>IPO Application</t>
   </si>
   <si>
@@ -299,13 +302,184 @@
   </si>
   <si>
     <t>IPO allocation &amp; Refund</t>
+  </si>
+  <si>
+    <t>Company,Broker 
+and Branch Setup</t>
+  </si>
+  <si>
+    <t>Settlement 
+&amp; CDBL Operation</t>
+  </si>
+  <si>
+    <t>Create, modify-Initiator and Client information with allowable script. Loan amount and expiry data followed by providing Loan agreement.</t>
+  </si>
+  <si>
+    <t>Initiator loan related data for approval followed by RM, Branch Manager and Management.</t>
+  </si>
+  <si>
+    <t>Create, modify and delete Loan and Interest Information</t>
+  </si>
+  <si>
+    <t>Loan Requisition Memo</t>
+  </si>
+  <si>
+    <t>Loan Requisition Memo Approval</t>
+  </si>
+  <si>
+    <t>Loan Interest Configuration</t>
+  </si>
+  <si>
+    <t>Loan Management</t>
+  </si>
+  <si>
+    <t>Financial Transaction</t>
+  </si>
+  <si>
+    <t>Internal Fund Transfer</t>
+  </si>
+  <si>
+    <t>After Buy/Sell,  Broker can fund settle with different exchange</t>
+  </si>
+  <si>
+    <t>Fund Receive</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Investor fund withdraw request generation</t>
+  </si>
+  <si>
+    <t>Investor fund transfer from one account to another account (only single and joint account can transfer)</t>
+  </si>
+  <si>
+    <t>Fund Withdraw</t>
+  </si>
+  <si>
+    <t>Cheque Deposit to Bank</t>
+  </si>
+  <si>
+    <t>Fund Withdraw Request</t>
+  </si>
+  <si>
+    <t>Investor fund receive (Cash, Cheque and other form) and list</t>
+  </si>
+  <si>
+    <t>Cheque Clear &amp; Dishonor</t>
+  </si>
+  <si>
+    <t>clearance or dishonor after  fund receive (Cash, Cheque and other form)</t>
+  </si>
+  <si>
+    <t>On demand Charge</t>
+  </si>
+  <si>
+    <t>Investor manual charge addition and deduction</t>
+  </si>
+  <si>
+    <t>Accounting System</t>
+  </si>
+  <si>
+    <t>GL Configuration</t>
+  </si>
+  <si>
+    <t>Chart of accounts level definition</t>
+  </si>
+  <si>
+    <t>GL Branch</t>
+  </si>
+  <si>
+    <t>Set up GL branch</t>
+  </si>
+  <si>
+    <t>Account Category</t>
+  </si>
+  <si>
+    <t>Set up account category</t>
+  </si>
+  <si>
+    <t>Chart Of Accounts</t>
+  </si>
+  <si>
+    <t>Create, modify, delete GL account information</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Create, modify , delete Bank account and map with GL</t>
+  </si>
+  <si>
+    <t>Journal Voucher</t>
+  </si>
+  <si>
+    <t>Using for Journal voucher (other than investor transaction)</t>
+  </si>
+  <si>
+    <t>Delete Transaction</t>
+  </si>
+  <si>
+    <t>Using for deleting transaction for current date</t>
+  </si>
+  <si>
+    <t>Edit/Delete Un App. Trans.</t>
+  </si>
+  <si>
+    <t>Modify or delete un-approved gl transaction</t>
+  </si>
+  <si>
+    <t>Branch Integration</t>
+  </si>
+  <si>
+    <t>GL integration for multiple branch</t>
+  </si>
+  <si>
+    <t>Name of Functionality</t>
+  </si>
+  <si>
+    <t>Compliance 
+&amp; Risk Management</t>
+  </si>
+  <si>
+    <t>Compare Trade Status File</t>
+  </si>
+  <si>
+    <t>Margin Client Setup List</t>
+  </si>
+  <si>
+    <t>Company Listed For Margin</t>
+  </si>
+  <si>
+    <t>Regular Traded Clients</t>
+  </si>
+  <si>
+    <t>Company Listed/Delisted Approval</t>
+  </si>
+  <si>
+    <t>BO Closing Approval</t>
+  </si>
+  <si>
+    <t>Margin limit set up</t>
+  </si>
+  <si>
+    <t>Company map to Marginable sec.</t>
+  </si>
+  <si>
+    <t>Client list</t>
+  </si>
+  <si>
+    <t>Approval After New Company information added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existing BO Closing Approval </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +489,84 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF002060"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -333,8 +578,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -355,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -449,19 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -554,87 +785,435 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,625 +1494,1066 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="77">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="78">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="78">
+        <v>3</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="78">
+        <v>4</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="78">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="78">
+        <v>6</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="78">
+        <v>7</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="79">
+        <v>8</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="82">
+        <v>9</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="83">
+        <v>10</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="83">
+        <v>11</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="82">
+        <v>12</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="83">
+        <v>13</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="83">
+        <v>14</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="82">
+        <v>15</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="83">
+        <v>16</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="83">
+        <v>17</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="82">
+        <v>18</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="83">
+        <v>19</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="83">
+        <v>20</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="82">
+        <v>21</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="82">
+        <v>22</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="15">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="15">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="15">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="15">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="15">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16">
-        <v>8</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="15">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E26" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="83">
+        <v>23</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="82">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="15">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="D28" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="83">
         <v>25</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="D29" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="82">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="C13" s="15">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="C31" s="83">
         <v>27</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="D31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="82">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="15">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="D32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="84">
         <v>29</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="D34" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="75">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="C15" s="15">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="D35" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="84">
         <v>31</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="D36" s="39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="15">
-        <v>14</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="E36" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="8" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="75">
+        <v>32</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="82">
+        <v>32</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="52"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="83">
+        <v>33</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="82">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="D41" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="52"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="83">
         <v>35</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="D42" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="82">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="C18" s="15">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="D43" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="52"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="83">
         <v>37</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="D44" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="82">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="C19" s="15">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="D45" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="52"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+    </row>
+    <row r="47" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="82">
         <v>39</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="D47" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="83">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="C20" s="15">
-        <v>21</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="D48" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="82">
         <v>41</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="D49" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="83">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="15">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="82">
         <v>43</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="D51" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="83">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="C22" s="15">
-        <v>25</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="D52" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="82">
         <v>45</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="D53" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="83">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="18">
-        <v>26</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="D54" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="82">
         <v>47</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="D55" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="60"/>
+    </row>
+    <row r="57" spans="1:5" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="82">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="D57" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="83">
+        <v>49</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="85">
+        <v>50</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="64"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="86"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="87">
+        <v>51</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="87">
+        <v>52</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="87">
+        <v>53</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="87">
+        <v>54</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="87">
+        <v>55</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="87">
+        <v>56</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="67"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="89">
+        <v>57</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="C70" s="89">
+        <v>58</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="C71" s="89">
+        <v>59</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="C72" s="89">
         <v>60</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="20">
-        <v>27</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="15">
-        <v>28</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="15">
-        <v>29</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="15">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="24">
-        <v>31</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="D72" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="C73" s="89">
+        <v>61</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="C74" s="89">
+        <v>62</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="C75" s="89">
+        <v>63</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="C76" s="89">
+        <v>64</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="89">
         <v>65</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="20">
-        <v>33</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="24">
-        <v>34</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="21">
-        <v>40</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="8">
-        <v>41</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="8">
-        <v>42</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="8">
-        <v>43</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="8">
-        <v>44</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8">
-        <v>45</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="8">
-        <v>46</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="162" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="8">
-        <v>48</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="8">
-        <v>51</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="8">
-        <v>52</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="23"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="8">
-        <v>53</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="23"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="8">
-        <v>54</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="23"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="25">
-        <v>55</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-    </row>
+      <c r="D77" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="13"/>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="D83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="3"/>
+      <c r="E85" s="91"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="3"/>
+      <c r="E86" s="91"/>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="3"/>
+      <c r="E87" s="91"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="3"/>
+      <c r="E88" s="91"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="3"/>
+      <c r="E89" s="91"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="3"/>
+      <c r="E90" s="91"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="3"/>
+      <c r="E91" s="91"/>
+    </row>
+    <row r="92" spans="4:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B67"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D57" r:id="rId1" tooltip="Loan Requisition Memo" display="http://192.168.100.25/mint/Branch/LoanRequisitionMemoUI.aspx?SiteMapTreeExpanded=178" xr:uid="{DFCF7428-4462-4362-8D4B-398E4FF89291}"/>
+    <hyperlink ref="D58" r:id="rId2" tooltip="Loan Requisition Memo" display="http://192.168.100.25/mint/Branch/LoanRequisitionMemoUI.aspx?SiteMapTreeExpanded=178" xr:uid="{7886465F-171C-46EB-8E82-678ACE2566B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5DA12A-AA00-4F09-BEDD-99A4E09FAB47}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>